--- a/横版过关地图.xlsx
+++ b/横版过关地图.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61845\Desktop\ECE Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ECE3200-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1D1F58-2940-4BBC-9FBB-D0FDCB6E5D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0646B730-CABE-44DB-B89E-0C3969A9FD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="城堡外" sheetId="1" r:id="rId1"/>
     <sheet name="城堡内" sheetId="2" r:id="rId2"/>
     <sheet name="恶魔王座" sheetId="4" r:id="rId3"/>
+    <sheet name="天堂" sheetId="7" r:id="rId4"/>
+    <sheet name="地狱" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>18*36</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +86,22 @@
     <t>恶魔大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>上帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡名册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -119,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +198,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -193,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -208,6 +238,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1179,7 +1211,7 @@
   <dimension ref="D1:BC87"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AM17" sqref="AM17"/>
+      <selection activeCell="AL15" sqref="AL15:AM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1844,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EDA5F0-C63F-4116-BF59-351DF7B58103}">
   <dimension ref="J1:AT87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J15" sqref="J7:AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2239,4 +2271,721 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4808B2B8-7EB1-4C2E-992D-8011341E637D}">
+  <dimension ref="M1:AV87"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AP17" sqref="AP17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="72" width="5.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="13:48" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="13:48" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="13:48" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="13:48" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="13:48" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="13:48" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="13:48" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AR7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+    </row>
+    <row r="8" spans="13:48" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+    </row>
+    <row r="9" spans="13:48" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+    </row>
+    <row r="10" spans="13:48" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+    </row>
+    <row r="11" spans="13:48" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="1"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+    </row>
+    <row r="12" spans="13:48" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M12" s="1"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="1"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+    </row>
+    <row r="13" spans="13:48" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M13" s="1"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="1"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+    </row>
+    <row r="14" spans="13:48" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+    </row>
+    <row r="15" spans="13:48" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+    </row>
+    <row r="16" spans="13:48" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+    </row>
+    <row r="17" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DB2645-D49D-42F6-8DB9-AEC91E649007}">
+  <dimension ref="M1:AO87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="65" width="5.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="13:41" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="13:41" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="13:41" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="13:41" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="13:41" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="13:41" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="13:41" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+    </row>
+    <row r="8" spans="13:41" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+    </row>
+    <row r="9" spans="13:41" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="1"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+    </row>
+    <row r="10" spans="13:41" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="1"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+    </row>
+    <row r="11" spans="13:41" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="1"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+    </row>
+    <row r="12" spans="13:41" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M12" s="1"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="1"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+    </row>
+    <row r="13" spans="13:41" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M13" s="1"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="1"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+    </row>
+    <row r="14" spans="13:41" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+    </row>
+    <row r="15" spans="13:41" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+    </row>
+    <row r="16" spans="13:41" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+    </row>
+    <row r="17" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="33.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>